--- a/Team-Data/2012-13/2-5-2012-13.xlsx
+++ b/Team-Data/2012-13/2-5-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,19 +733,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.553</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I2" t="n">
         <v>37.1</v>
@@ -693,61 +760,61 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="N2" t="n">
         <v>0.381</v>
       </c>
       <c r="O2" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="P2" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="R2" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T2" t="n">
         <v>40.5</v>
       </c>
       <c r="U2" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.4</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
@@ -759,16 +826,16 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
@@ -798,22 +865,22 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -959,7 +1026,7 @@
         <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -986,16 +1053,16 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>0.583</v>
+        <v>0.596</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K4" t="n">
-        <v>0.442</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
         <v>7.6</v>
@@ -1060,25 +1127,25 @@
         <v>21.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
         <v>0.746</v>
       </c>
       <c r="R4" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S4" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U4" t="n">
         <v>20.1</v>
@@ -1093,7 +1160,7 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
         <v>18.3</v>
@@ -1102,25 +1169,25 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1129,19 +1196,19 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
@@ -1153,16 +1220,16 @@
         <v>9</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1174,16 +1241,16 @@
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1335,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="AS5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT5" t="n">
         <v>24</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1526,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1538,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA6" t="n">
         <v>12</v>
@@ -1547,7 +1614,7 @@
         <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1711,7 +1778,7 @@
         <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>20</v>
@@ -1851,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.633</v>
+        <v>0.625</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,37 +2025,37 @@
         <v>39.9</v>
       </c>
       <c r="J9" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L9" t="n">
         <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O9" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="S9" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="U9" t="n">
         <v>23.8</v>
@@ -2000,37 +2067,37 @@
         <v>8.6</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z9" t="n">
         <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.2</v>
+        <v>104</v>
       </c>
       <c r="AC9" t="n">
         <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2045,13 +2112,13 @@
         <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>3</v>
@@ -2072,10 +2139,10 @@
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,16 +2151,16 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2221,7 +2288,7 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>24</v>
@@ -2230,10 +2297,10 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2269,7 +2336,7 @@
         <v>11</v>
       </c>
       <c r="BA10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.625</v>
+        <v>0.638</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J11" t="n">
         <v>83.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.391</v>
+        <v>0.394</v>
       </c>
       <c r="O11" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q11" t="n">
         <v>0.803</v>
@@ -2349,82 +2416,82 @@
         <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
         <v>5.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2457,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.54</v>
+        <v>0.531</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L12" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="M12" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>0.365</v>
+        <v>0.359</v>
       </c>
       <c r="O12" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
@@ -2534,16 +2601,16 @@
         <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
@@ -2552,28 +2619,28 @@
         <v>6.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.8</v>
+        <v>105.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2582,10 +2649,10 @@
         <v>7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,28 +2670,28 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2633,13 +2700,13 @@
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>0.612</v>
+        <v>0.604</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,70 +2753,70 @@
         <v>34.8</v>
       </c>
       <c r="J13" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="P13" t="n">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R13" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
         <v>32.6</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y13" t="n">
         <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
         <v>9</v>
@@ -2758,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2773,16 +2840,16 @@
         <v>16</v>
       </c>
       <c r="AM13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP13" t="n">
         <v>16</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>21</v>
@@ -2797,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2812,10 +2879,10 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -2943,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2955,7 +3022,7 @@
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN14" t="n">
         <v>20</v>
@@ -2976,13 +3043,13 @@
         <v>20</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="n">
         <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>0.469</v>
+        <v>0.458</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3056,43 +3123,43 @@
         <v>0.457</v>
       </c>
       <c r="L15" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O15" t="n">
         <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S15" t="n">
         <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U15" t="n">
         <v>22.3</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.9</v>
@@ -3101,16 +3168,16 @@
         <v>18.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3134,13 +3201,13 @@
         <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3152,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3161,16 +3228,16 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3179,13 +3246,13 @@
         <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -3214,91 +3281,91 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
         <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.638</v>
+        <v>0.652</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.435</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O16" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R16" t="n">
         <v>13.7</v>
       </c>
       <c r="S16" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z16" t="n">
         <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB16" t="n">
         <v>93.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>6</v>
@@ -3313,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3337,10 +3404,10 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3361,13 +3428,13 @@
         <v>12</v>
       </c>
       <c r="BA16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -3507,13 +3574,13 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3540,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>0.532</v>
+        <v>0.543</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="J18" t="n">
-        <v>86.90000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
         <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O18" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.733</v>
+        <v>0.737</v>
       </c>
       <c r="R18" t="n">
         <v>13.1</v>
@@ -3629,34 +3696,34 @@
         <v>43.7</v>
       </c>
       <c r="U18" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V18" t="n">
         <v>14.5</v>
       </c>
       <c r="W18" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AA18" t="n">
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3665,19 +3732,19 @@
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3686,13 +3753,13 @@
         <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>22</v>
@@ -3707,19 +3774,19 @@
         <v>6</v>
       </c>
       <c r="AU18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -3889,10 +3956,10 @@
         <v>8</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>15</v>
@@ -3904,10 +3971,10 @@
         <v>24</v>
       </c>
       <c r="AZ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA19" t="n">
         <v>2</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>1</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4032,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4089,7 +4156,7 @@
         <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>5.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4217,10 +4284,10 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4432,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
         <v>19</v>
@@ -4453,7 +4520,7 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
@@ -4590,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM23" t="n">
         <v>15</v>
@@ -4617,10 +4684,10 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="n">
         <v>32</v>
       </c>
       <c r="G25" t="n">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J25" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L25" t="n">
         <v>5.8</v>
       </c>
       <c r="M25" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O25" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P25" t="n">
         <v>20</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R25" t="n">
         <v>11.2</v>
@@ -4906,7 +4973,7 @@
         <v>22</v>
       </c>
       <c r="V25" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W25" t="n">
         <v>7.9</v>
@@ -4915,10 +4982,10 @@
         <v>5.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
         <v>18.6</v>
@@ -4927,22 +4994,22 @@
         <v>95.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.2</v>
+        <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
         <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>12</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
@@ -4969,19 +5036,19 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>17</v>
       </c>
       <c r="AS25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT25" t="n">
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV25" t="n">
         <v>5</v>
@@ -4993,7 +5060,7 @@
         <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ25" t="n">
         <v>19</v>
@@ -5002,7 +5069,7 @@
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5145,7 +5212,7 @@
         <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
@@ -5166,13 +5233,13 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW26" t="n">
         <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5370,7 @@
         <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>20</v>
@@ -5312,7 +5379,7 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
@@ -5324,7 +5391,7 @@
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>16</v>
@@ -5333,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5509,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
@@ -5548,7 +5615,7 @@
         <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5679,10 +5746,10 @@
         <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>8</v>
@@ -5691,10 +5758,10 @@
         <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
         <v>11</v>
@@ -5721,13 +5788,13 @@
         <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-0.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -5882,22 +5949,22 @@
         <v>12</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV30" t="n">
         <v>14</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6091,7 +6158,7 @@
         <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-5-2012-13</t>
+          <t>2013-02-05</t>
         </is>
       </c>
     </row>
